--- a/coordinates_py.xlsx
+++ b/coordinates_py.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2617D879-D370-499F-85DB-61BF3A47F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD273C8F-47C0-4C87-9F49-9F21CC65E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2016B8F3-8304-4440-A58E-C8F8BCC1CB00}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1108,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
         <v>195</v>
       </c>
       <c r="C1" s="7">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A646329-D59B-450F-891E-5E267196DCF7}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9715EC6-61B3-4DCF-A074-C4ABEA9F0A07}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B1">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C1">
-        <v>-20</v>
+        <v>107</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>23</v>

--- a/coordinates_py.xlsx
+++ b/coordinates_py.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD273C8F-47C0-4C87-9F49-9F21CC65E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA99D1-3D9D-409E-A0D1-245E906DBA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897DF2-FC0F-4FAA-A3EF-F7D5375498DA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1">
         <v>12</v>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="H1">
-        <v>-62</v>
+        <v>-72</v>
       </c>
       <c r="I1">
         <v>12</v>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1">
         <v>-60</v>
@@ -736,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="H2">
-        <v>-62</v>
+        <v>-72</v>
       </c>
       <c r="I2">
         <v>-60</v>
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9715EC6-61B3-4DCF-A074-C4ABEA9F0A07}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/coordinates_py.xlsx
+++ b/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA99D1-3D9D-409E-A0D1-245E906DBA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2D0A9-5A07-4F8A-8ACA-265071701B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Wires" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -672,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897DF2-FC0F-4FAA-A3EF-F7D5375498DA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1107,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA27D23-19E6-4EDD-8799-ABB2D17C0FE4}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1127,7 @@
         <v>195</v>
       </c>
       <c r="C2" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1134,7 +1135,7 @@
         <v>195</v>
       </c>
       <c r="C3" s="7">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1142,7 +1143,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="7">
-        <v>-25</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1150,7 +1151,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="7">
-        <v>-60</v>
+        <v>-80</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates_py.xlsx
+++ b/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2D0A9-5A07-4F8A-8ACA-265071701B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0217447E-40DD-4F7D-B944-C52B38496E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="3945" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Wires" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -673,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897DF2-FC0F-4FAA-A3EF-F7D5375498DA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA27D23-19E6-4EDD-8799-ABB2D17C0FE4}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
